--- a/LuaFramework_UGUI-master/Assets/Excel/Skill.xlsx
+++ b/LuaFramework_UGUI-master/Assets/Excel/Skill.xlsx
@@ -488,7 +488,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -626,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -652,7 +652,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F8">
         <v>0</v>

--- a/LuaFramework_UGUI-master/Assets/Excel/Skill.xlsx
+++ b/LuaFramework_UGUI-master/Assets/Excel/Skill.xlsx
@@ -2095,7 +2095,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="283">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3263,6 +3263,10 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effecttype</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3913,8 +3917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4112,7 +4116,7 @@
         <v>236</v>
       </c>
       <c r="AB2" s="34" t="s">
-        <v>237</v>
+        <v>282</v>
       </c>
       <c r="AC2" s="34" t="s">
         <v>238</v>

--- a/LuaFramework_UGUI-master/Assets/Excel/Skill.xlsx
+++ b/LuaFramework_UGUI-master/Assets/Excel/Skill.xlsx
@@ -21,7 +21,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,87 +77,6 @@
             <charset val="134"/>
           </rPr>
           <t>远程</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">类型：
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">伤害
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">恢复
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>辅助</t>
         </r>
       </text>
     </comment>
@@ -168,6 +87,40 @@
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">类型：
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">伤害
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -182,32 +135,33 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>优先级</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>为最高。</t>
+          <t xml:space="preserve">恢复
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>辅助</t>
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -228,28 +182,28 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>百分比</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>触发使用</t>
+          <t>优先级</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>为最高。</t>
         </r>
       </text>
     </comment>
@@ -260,6 +214,52 @@
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>百分比</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>触发使用</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -464,87 +464,6 @@
           </rPr>
           <t xml:space="preserve">移动大目标位置（不返回）
 </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">类型：
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">敌方
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">友方
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>自己</t>
         </r>
       </text>
     </comment>
@@ -581,7 +500,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">单位目标
+          <t xml:space="preserve">敌方
 </t>
         </r>
         <r>
@@ -603,17 +522,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>地点目标</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">   
+          <t xml:space="preserve">友方
 </t>
         </r>
         <r>
@@ -621,62 +530,6 @@
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">单位目标
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">随机目标
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">指定位置
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -691,96 +544,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">数值最高
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>3.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">数值最低
-地点目标
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>4.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">自身位置
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>5.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">己方阵型中心
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>6.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>敌方阵型中心</t>
+          <t>自己</t>
         </r>
       </text>
     </comment>
@@ -791,6 +555,18 @@
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">类型：
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -805,7 +581,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">随机数量
+          <t xml:space="preserve">单位目标
 </t>
         </r>
         <r>
@@ -827,28 +603,17 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>当前位置序列（</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1-10</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">位置从上到下）
+          <t>地点目标</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">   
 </t>
         </r>
         <r>
@@ -856,6 +621,62 @@
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">单位目标
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">随机目标
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">指定位置
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -870,71 +691,96 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>属性</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>ID(0.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>攻击，</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>血量，</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">，防御。。）
+          <t xml:space="preserve">数值最高
 </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">数值最低
+地点目标
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>4.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">自身位置
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>5.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">己方阵型中心
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>6.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>敌方阵型中心</t>
         </r>
       </text>
     </comment>
@@ -945,6 +791,160 @@
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">随机数量
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>当前位置序列（</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1-10</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">位置从上到下）
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>属性</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ID(0.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>攻击，</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>血量，</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">，防御。。）
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -1064,7 +1064,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0">
+    <comment ref="X1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1120,87 +1120,6 @@
             <charset val="134"/>
           </rPr>
           <t>否</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AA1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">类型：
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">目标
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">自己
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>己方全体</t>
         </r>
       </text>
     </comment>
@@ -1237,6 +1156,87 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
+          <t xml:space="preserve">目标
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">自己
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>己方全体</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">类型：
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
           <t xml:space="preserve">伤害
 </t>
         </r>
@@ -1394,116 +1394,6 @@
           </rPr>
           <t xml:space="preserve">变身
 </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AD1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>填写对应</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>id</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">：
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>buffID</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>，召唤的怪物</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>ID,</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>移除的</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>buffID,</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>变身的</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>ID</t>
         </r>
       </text>
     </comment>
@@ -1518,11 +1408,121 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>填写百分比数值</t>
+          <t>填写对应</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>id</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>buffID</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>，召唤的怪物</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ID,</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>移除的</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>buffID,</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>变身的</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ID</t>
         </r>
       </text>
     </comment>
     <comment ref="AF1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>填写百分比数值</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2095,7 +2095,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="284">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3267,6 +3267,10 @@
   </si>
   <si>
     <t>effecttype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3915,10 +3919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI12"/>
+  <dimension ref="A1:AJ12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3928,227 +3932,233 @@
     <col min="5" max="56" width="27.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:36">
       <c r="A1" s="35" t="s">
         <v>204</v>
       </c>
       <c r="B1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="D1" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="E1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="F1" s="35" t="s">
         <v>249</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="G1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="H1" s="35" t="s">
         <v>274</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="I1" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="J1" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="K1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="L1" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="M1" s="35" t="s">
         <v>266</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="N1" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="N1" s="35" t="s">
+      <c r="O1" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="O1" s="35" t="s">
+      <c r="P1" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="P1" s="35" t="s">
+      <c r="Q1" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="Q1" s="35" t="s">
+      <c r="R1" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="R1" s="35" t="s">
+      <c r="S1" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="35" t="s">
+      <c r="T1" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="T1" s="35" t="s">
+      <c r="U1" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="35" t="s">
+      <c r="V1" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="V1" s="35" t="s">
+      <c r="W1" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="W1" s="35" t="s">
+      <c r="X1" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="X1" s="35" t="s">
+      <c r="Y1" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="Y1" s="35" t="s">
+      <c r="Z1" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="Z1" s="35" t="s">
+      <c r="AA1" s="35" t="s">
         <v>276</v>
       </c>
-      <c r="AA1" s="35" t="s">
+      <c r="AB1" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="AB1" s="35" t="s">
+      <c r="AC1" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="AC1" s="35" t="s">
+      <c r="AD1" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="AD1" s="35" t="s">
+      <c r="AE1" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="AE1" s="35" t="s">
+      <c r="AF1" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="AF1" s="35" t="s">
+      <c r="AG1" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="AG1" s="35" t="s">
+      <c r="AH1" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="AH1" s="35" t="s">
+      <c r="AI1" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="AI1" s="35" t="s">
+      <c r="AJ1" s="35" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:36">
       <c r="A2" s="34" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="C2" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="D2" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="E2" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="F2" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="G2" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="34"/>
+      <c r="I2" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="J2" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="K2" s="34" t="s">
         <v>213</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="L2" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="M2" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="N2" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="N2" s="34" t="s">
+      <c r="O2" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="O2" s="34" t="s">
+      <c r="P2" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="Q2" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="Q2" s="34" t="s">
+      <c r="R2" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="R2" s="34" t="s">
+      <c r="S2" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="S2" s="34" t="s">
+      <c r="T2" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="T2" s="34" t="s">
+      <c r="U2" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="U2" s="34" t="s">
+      <c r="V2" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="V2" s="34" t="s">
+      <c r="W2" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="W2" s="34" t="s">
+      <c r="X2" s="34" t="s">
         <v>233</v>
       </c>
-      <c r="X2" s="34" t="s">
+      <c r="Y2" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="Y2" s="34" t="s">
+      <c r="Z2" s="34" t="s">
         <v>232</v>
       </c>
-      <c r="Z2" s="34" t="s">
+      <c r="AA2" s="34" t="s">
         <v>235</v>
       </c>
-      <c r="AA2" s="34" t="s">
+      <c r="AB2" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="AB2" s="34" t="s">
+      <c r="AC2" s="34" t="s">
         <v>282</v>
       </c>
-      <c r="AC2" s="34" t="s">
+      <c r="AD2" s="34" t="s">
         <v>238</v>
       </c>
-      <c r="AD2" s="34" t="s">
+      <c r="AE2" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="AE2" s="34" t="s">
+      <c r="AF2" s="34" t="s">
         <v>240</v>
       </c>
-      <c r="AF2" s="34" t="s">
+      <c r="AG2" s="34" t="s">
         <v>241</v>
       </c>
-      <c r="AG2" s="34" t="s">
+      <c r="AH2" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="AH2" s="34" t="s">
+      <c r="AI2" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="AI2" s="34" t="s">
+      <c r="AJ2" s="34" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:36">
       <c r="A3" s="34" t="s">
         <v>206</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>246</v>
+        <v>206</v>
       </c>
       <c r="D3" s="34" t="s">
         <v>246</v>
@@ -4157,15 +4167,15 @@
         <v>246</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="34" t="s">
-        <v>206</v>
-      </c>
       <c r="J3" s="34" t="s">
         <v>206</v>
       </c>
@@ -4173,11 +4183,11 @@
         <v>206</v>
       </c>
       <c r="L3" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="M3" s="34" t="s">
         <v>280</v>
       </c>
-      <c r="M3" s="34" t="s">
-        <v>206</v>
-      </c>
       <c r="N3" s="34" t="s">
         <v>206</v>
       </c>
@@ -4194,11 +4204,11 @@
         <v>206</v>
       </c>
       <c r="S3" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="T3" s="34" t="s">
         <v>281</v>
       </c>
-      <c r="T3" s="34" t="s">
-        <v>206</v>
-      </c>
       <c r="U3" s="34" t="s">
         <v>206</v>
       </c>
@@ -4236,54 +4246,57 @@
         <v>206</v>
       </c>
       <c r="AG3" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH3" s="34" t="s">
         <v>279</v>
       </c>
-      <c r="AH3" s="34" t="s">
-        <v>206</v>
-      </c>
       <c r="AI3" s="34" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="6" spans="1:35">
+      <c r="AJ3" s="34" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36">
       <c r="A6" s="34">
         <v>1</v>
       </c>
       <c r="B6" s="34">
         <v>1</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="34">
+        <v>1</v>
+      </c>
+      <c r="D6" s="34" t="s">
         <v>269</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="E6" s="34" t="s">
         <v>270</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="F6" s="34" t="s">
         <v>271</v>
       </c>
-      <c r="F6" s="34">
+      <c r="G6" s="34">
         <v>1</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="H6" s="34" t="s">
         <v>275</v>
       </c>
-      <c r="H6" s="34">
+      <c r="I6" s="34">
         <v>1</v>
       </c>
-      <c r="I6" s="34">
+      <c r="J6" s="34">
         <v>0</v>
       </c>
-      <c r="J6" s="34">
+      <c r="K6" s="34">
         <v>100</v>
       </c>
-      <c r="K6" s="34">
+      <c r="L6" s="34">
         <v>15</v>
       </c>
-      <c r="L6" s="34">
+      <c r="M6" s="34">
         <v>0.01</v>
-      </c>
-      <c r="M6" s="34">
-        <v>0</v>
       </c>
       <c r="N6" s="34">
         <v>0</v>
@@ -4304,34 +4317,34 @@
         <v>0</v>
       </c>
       <c r="T6" s="34">
+        <v>0</v>
+      </c>
+      <c r="U6" s="34">
         <v>1</v>
       </c>
-      <c r="U6" s="34">
+      <c r="V6" s="34">
         <v>0</v>
       </c>
-      <c r="V6" s="34">
+      <c r="W6" s="34">
         <v>1</v>
       </c>
-      <c r="W6" s="34">
+      <c r="X6" s="34">
         <v>0</v>
       </c>
-      <c r="X6" s="34">
+      <c r="Y6" s="34">
         <v>1</v>
       </c>
-      <c r="Y6" s="34">
+      <c r="Z6" s="34">
         <v>15</v>
       </c>
-      <c r="Z6" s="34">
+      <c r="AA6" s="34">
         <v>10</v>
-      </c>
-      <c r="AA6" s="34">
-        <v>0</v>
       </c>
       <c r="AB6" s="34">
         <v>0</v>
       </c>
       <c r="AC6" s="34">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="34">
         <v>10</v>
@@ -4343,54 +4356,57 @@
         <v>10</v>
       </c>
       <c r="AG6" s="34">
+        <v>10</v>
+      </c>
+      <c r="AH6" s="34">
         <v>1.5</v>
-      </c>
-      <c r="AH6" s="34">
-        <v>10</v>
       </c>
       <c r="AI6" s="34">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:35">
+      <c r="AJ6" s="34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36">
       <c r="A7" s="34">
         <v>2</v>
       </c>
       <c r="B7" s="34">
+        <v>2</v>
+      </c>
+      <c r="C7" s="34">
         <v>1</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="D7" s="34" t="s">
         <v>269</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="E7" s="34" t="s">
         <v>270</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="F7" s="34" t="s">
         <v>271</v>
       </c>
-      <c r="F7" s="34">
+      <c r="G7" s="34">
         <v>1</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="H7" s="34" t="s">
         <v>275</v>
       </c>
-      <c r="H7" s="34">
+      <c r="I7" s="34">
         <v>1</v>
       </c>
-      <c r="I7" s="34">
+      <c r="J7" s="34">
         <v>0</v>
       </c>
-      <c r="J7" s="34">
+      <c r="K7" s="34">
         <v>100</v>
       </c>
-      <c r="K7" s="34">
+      <c r="L7" s="34">
         <v>15</v>
       </c>
-      <c r="L7" s="34">
+      <c r="M7" s="34">
         <v>0.01</v>
-      </c>
-      <c r="M7" s="34">
-        <v>0</v>
       </c>
       <c r="N7" s="34">
         <v>0</v>
@@ -4411,34 +4427,34 @@
         <v>0</v>
       </c>
       <c r="T7" s="34">
+        <v>0</v>
+      </c>
+      <c r="U7" s="34">
         <v>1</v>
       </c>
-      <c r="U7" s="34">
+      <c r="V7" s="34">
         <v>0</v>
       </c>
-      <c r="V7" s="34">
+      <c r="W7" s="34">
         <v>1</v>
       </c>
-      <c r="W7" s="34">
+      <c r="X7" s="34">
         <v>0</v>
       </c>
-      <c r="X7" s="34">
+      <c r="Y7" s="34">
         <v>1</v>
       </c>
-      <c r="Y7" s="34">
+      <c r="Z7" s="34">
         <v>15</v>
       </c>
-      <c r="Z7" s="34">
+      <c r="AA7" s="34">
         <v>10</v>
-      </c>
-      <c r="AA7" s="34">
-        <v>0</v>
       </c>
       <c r="AB7" s="34">
         <v>0</v>
       </c>
       <c r="AC7" s="34">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AD7" s="34">
         <v>10</v>
@@ -4450,54 +4466,57 @@
         <v>10</v>
       </c>
       <c r="AG7" s="34">
+        <v>10</v>
+      </c>
+      <c r="AH7" s="34">
         <v>1.5</v>
-      </c>
-      <c r="AH7" s="34">
-        <v>10</v>
       </c>
       <c r="AI7" s="34">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:35">
+      <c r="AJ7" s="34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36">
       <c r="A8" s="34">
         <v>3</v>
       </c>
       <c r="B8" s="34">
+        <v>3</v>
+      </c>
+      <c r="C8" s="34">
         <v>1</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="D8" s="34" t="s">
         <v>269</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="E8" s="34" t="s">
         <v>270</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="F8" s="34" t="s">
         <v>271</v>
       </c>
-      <c r="F8" s="34">
+      <c r="G8" s="34">
         <v>1</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="H8" s="34" t="s">
         <v>275</v>
       </c>
-      <c r="H8" s="34">
+      <c r="I8" s="34">
         <v>1</v>
       </c>
-      <c r="I8" s="34">
+      <c r="J8" s="34">
         <v>0</v>
       </c>
-      <c r="J8" s="34">
+      <c r="K8" s="34">
         <v>100</v>
       </c>
-      <c r="K8" s="34">
+      <c r="L8" s="34">
         <v>15</v>
       </c>
-      <c r="L8" s="34">
+      <c r="M8" s="34">
         <v>0.01</v>
-      </c>
-      <c r="M8" s="34">
-        <v>0</v>
       </c>
       <c r="N8" s="34">
         <v>0</v>
@@ -4518,34 +4537,34 @@
         <v>0</v>
       </c>
       <c r="T8" s="34">
+        <v>0</v>
+      </c>
+      <c r="U8" s="34">
         <v>1</v>
       </c>
-      <c r="U8" s="34">
+      <c r="V8" s="34">
         <v>0</v>
       </c>
-      <c r="V8" s="34">
+      <c r="W8" s="34">
         <v>1</v>
       </c>
-      <c r="W8" s="34">
+      <c r="X8" s="34">
         <v>0</v>
       </c>
-      <c r="X8" s="34">
+      <c r="Y8" s="34">
         <v>1</v>
       </c>
-      <c r="Y8" s="34">
+      <c r="Z8" s="34">
         <v>15</v>
       </c>
-      <c r="Z8" s="34">
+      <c r="AA8" s="34">
         <v>10</v>
-      </c>
-      <c r="AA8" s="34">
-        <v>0</v>
       </c>
       <c r="AB8" s="34">
         <v>0</v>
       </c>
       <c r="AC8" s="34">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="34">
         <v>10</v>
@@ -4557,16 +4576,19 @@
         <v>10</v>
       </c>
       <c r="AG8" s="34">
+        <v>10</v>
+      </c>
+      <c r="AH8" s="34">
         <v>1.5</v>
-      </c>
-      <c r="AH8" s="34">
-        <v>10</v>
       </c>
       <c r="AI8" s="34">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:35" ht="182.25" customHeight="1">
+      <c r="AJ8" s="34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" ht="182.25" customHeight="1">
       <c r="A12" s="34"/>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>

--- a/LuaFramework_UGUI-master/Assets/Excel/Skill.xlsx
+++ b/LuaFramework_UGUI-master/Assets/Excel/Skill.xlsx
@@ -3922,14 +3922,48 @@
   <dimension ref="A1:AJ12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="3" width="27.375" customWidth="1"/>
-    <col min="4" max="4" width="36.25" customWidth="1"/>
-    <col min="5" max="56" width="27.375" customWidth="1"/>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="7.25" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="36.125" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="15.75" customWidth="1"/>
+    <col min="10" max="10" width="13.75" customWidth="1"/>
+    <col min="11" max="11" width="16.375" customWidth="1"/>
+    <col min="12" max="12" width="17.5" customWidth="1"/>
+    <col min="13" max="13" width="16.25" customWidth="1"/>
+    <col min="14" max="14" width="12.375" customWidth="1"/>
+    <col min="15" max="15" width="14.5" customWidth="1"/>
+    <col min="16" max="16" width="15.125" customWidth="1"/>
+    <col min="17" max="17" width="20.5" customWidth="1"/>
+    <col min="18" max="18" width="11" customWidth="1"/>
+    <col min="19" max="19" width="15.625" customWidth="1"/>
+    <col min="20" max="20" width="17" customWidth="1"/>
+    <col min="21" max="21" width="26" customWidth="1"/>
+    <col min="22" max="22" width="16.875" customWidth="1"/>
+    <col min="23" max="23" width="17.125" customWidth="1"/>
+    <col min="24" max="24" width="11.375" customWidth="1"/>
+    <col min="25" max="25" width="13.5" customWidth="1"/>
+    <col min="26" max="26" width="12.5" customWidth="1"/>
+    <col min="27" max="27" width="12.75" customWidth="1"/>
+    <col min="28" max="28" width="15.25" customWidth="1"/>
+    <col min="29" max="29" width="12.625" customWidth="1"/>
+    <col min="30" max="30" width="14.875" customWidth="1"/>
+    <col min="31" max="31" width="20.375" customWidth="1"/>
+    <col min="32" max="32" width="23.625" customWidth="1"/>
+    <col min="33" max="33" width="21.75" customWidth="1"/>
+    <col min="34" max="34" width="10.5" customWidth="1"/>
+    <col min="35" max="35" width="15" customWidth="1"/>
+    <col min="36" max="36" width="19" customWidth="1"/>
+    <col min="37" max="56" width="27.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">

--- a/LuaFramework_UGUI-master/Assets/Excel/Skill.xlsx
+++ b/LuaFramework_UGUI-master/Assets/Excel/Skill.xlsx
@@ -2095,7 +2095,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="286">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3271,6 +3271,14 @@
   </si>
   <si>
     <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3922,7 +3930,7 @@
   <dimension ref="A1:AJ12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4292,6 +4300,29 @@
         <v>206</v>
       </c>
     </row>
+    <row r="4" spans="1:36">
+      <c r="I4" t="s">
+        <v>284</v>
+      </c>
+      <c r="J4" t="s">
+        <v>285</v>
+      </c>
+      <c r="K4" t="s">
+        <v>285</v>
+      </c>
+      <c r="M4" t="s">
+        <v>284</v>
+      </c>
+      <c r="N4" t="s">
+        <v>285</v>
+      </c>
+      <c r="O4" t="s">
+        <v>285</v>
+      </c>
+      <c r="P4" t="s">
+        <v>285</v>
+      </c>
+    </row>
     <row r="6" spans="1:36">
       <c r="A6" s="34">
         <v>1</v>

--- a/LuaFramework_UGUI-master/Assets/Excel/Skill.xlsx
+++ b/LuaFramework_UGUI-master/Assets/Excel/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -2095,7 +2095,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="287">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3279,6 +3279,10 @@
   </si>
   <si>
     <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateCost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3930,7 +3934,7 @@
   <dimension ref="A1:AJ12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3939,15 +3943,15 @@
     <col min="2" max="2" width="7.25" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="13.125" customWidth="1"/>
-    <col min="5" max="5" width="36.125" customWidth="1"/>
+    <col min="5" max="5" width="35.75" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="13.125" customWidth="1"/>
     <col min="9" max="9" width="15.75" customWidth="1"/>
-    <col min="10" max="10" width="13.75" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
     <col min="11" max="11" width="16.375" customWidth="1"/>
     <col min="12" max="12" width="17.5" customWidth="1"/>
-    <col min="13" max="13" width="16.25" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
     <col min="14" max="14" width="12.375" customWidth="1"/>
     <col min="15" max="15" width="14.5" customWidth="1"/>
     <col min="16" max="16" width="15.125" customWidth="1"/>
@@ -3970,7 +3974,7 @@
     <col min="33" max="33" width="21.75" customWidth="1"/>
     <col min="34" max="34" width="10.5" customWidth="1"/>
     <col min="35" max="35" width="15" customWidth="1"/>
-    <col min="36" max="36" width="19" customWidth="1"/>
+    <col min="36" max="36" width="15.75" customWidth="1"/>
     <col min="37" max="56" width="27.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4106,7 +4110,9 @@
       <c r="G2" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="H2" s="34"/>
+      <c r="H2" s="34" t="s">
+        <v>286</v>
+      </c>
       <c r="I2" s="36" t="s">
         <v>250</v>
       </c>
@@ -4653,7 +4659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="182.25" customHeight="1">
+    <row r="12" spans="1:36" ht="198.75" customHeight="1">
       <c r="A12" s="34"/>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>

--- a/LuaFramework_UGUI-master/Assets/Excel/Skill.xlsx
+++ b/LuaFramework_UGUI-master/Assets/Excel/Skill.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
@@ -1123,7 +1123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0">
+    <comment ref="Z1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1201,6 +1201,199 @@
             <charset val="134"/>
           </rPr>
           <t>己方全体</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">类型：
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">伤害
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">回复
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2.buff
+3.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">击退
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>4.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">浮空
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>5.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">召唤
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>6.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>移除</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>buff
+7.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">复活
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>8.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">变身
+</t>
         </r>
       </text>
     </comment>
@@ -1215,7 +1408,28 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">类型：
+          <t>填写对应</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>id</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">：
 </t>
         </r>
         <r>
@@ -1226,303 +1440,89 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>0.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">伤害
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">回复
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2.buff
-3.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">击退
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>4.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">浮空
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>5.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">召唤
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>6.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>移除</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>buff
-7.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">复活
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>8.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">变身
-</t>
+          <t>buffID</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>，召唤的怪物</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ID,</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>移除的</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>buffID,</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>变身的</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>填写百分比数值</t>
         </r>
       </text>
     </comment>
     <comment ref="AE1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>填写对应</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>id</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">：
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>buffID</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>，召唤的怪物</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>ID,</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>移除的</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>buffID,</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>变身的</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>ID</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AF1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>填写百分比数值</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AG1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2095,7 +2095,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="302">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3239,16 +3239,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>子弹效果ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型：
-0.近战
-1.远程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>填写对应id：
 buffID，召唤的怪物ID,移除的buffID,变身的ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3262,10 +3252,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>effecttype</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3283,13 +3269,101 @@
   </si>
   <si>
     <t>UpdateCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">类型：
+0.单位目标
+1.地点目标   
+单位目标
+0.随机目标
+1.指定位置
+2.数值最高
+3.数值最低
+地点目标
+4.自身位置
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">类型：
+0.扇形
+1.圆形
+2.矩形
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能子弹ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否普通攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型：
+0.是
+1.否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normalAttck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴风雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒冰箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级数值高优先</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀砍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="17">
     <font>
       <sz val="11"/>
@@ -3488,7 +3562,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -3511,11 +3585,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3630,6 +3717,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3645,7 +3735,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3719,7 +3809,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3754,7 +3843,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3930,23 +4018,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AH13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="AO11" sqref="AO11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="7.25" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
-    <col min="5" max="5" width="35.75" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="35.75" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="8" width="13.125" customWidth="1"/>
     <col min="9" max="9" width="15.75" customWidth="1"/>
     <col min="10" max="10" width="16.5" customWidth="1"/>
     <col min="11" max="11" width="16.375" customWidth="1"/>
@@ -3964,44 +4051,42 @@
     <col min="23" max="23" width="17.125" customWidth="1"/>
     <col min="24" max="24" width="11.375" customWidth="1"/>
     <col min="25" max="25" width="13.5" customWidth="1"/>
-    <col min="26" max="26" width="12.5" customWidth="1"/>
-    <col min="27" max="27" width="12.75" customWidth="1"/>
-    <col min="28" max="28" width="15.25" customWidth="1"/>
-    <col min="29" max="29" width="12.625" customWidth="1"/>
-    <col min="30" max="30" width="14.875" customWidth="1"/>
-    <col min="31" max="31" width="20.375" customWidth="1"/>
-    <col min="32" max="32" width="23.625" customWidth="1"/>
-    <col min="33" max="33" width="21.75" customWidth="1"/>
-    <col min="34" max="34" width="10.5" customWidth="1"/>
-    <col min="35" max="35" width="15" customWidth="1"/>
-    <col min="36" max="36" width="15.75" customWidth="1"/>
-    <col min="37" max="56" width="27.375" customWidth="1"/>
+    <col min="26" max="26" width="18" customWidth="1"/>
+    <col min="27" max="27" width="12.625" customWidth="1"/>
+    <col min="28" max="28" width="14.875" customWidth="1"/>
+    <col min="29" max="29" width="20.375" customWidth="1"/>
+    <col min="30" max="30" width="23.625" customWidth="1"/>
+    <col min="31" max="31" width="21.75" customWidth="1"/>
+    <col min="32" max="32" width="10.5" customWidth="1"/>
+    <col min="33" max="33" width="15" customWidth="1"/>
+    <col min="34" max="34" width="15.75" customWidth="1"/>
+    <col min="35" max="54" width="27.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:34">
       <c r="A1" s="35" t="s">
         <v>204</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>1</v>
+        <v>202</v>
       </c>
       <c r="C1" s="35" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>203</v>
+        <v>5</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>5</v>
+        <v>249</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>249</v>
+        <v>7</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>7</v>
+        <v>274</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>247</v>
@@ -4052,66 +4137,60 @@
         <v>118</v>
       </c>
       <c r="Y1" s="35" t="s">
-        <v>114</v>
+        <v>286</v>
       </c>
       <c r="Z1" s="35" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="AA1" s="35" t="s">
-        <v>276</v>
+        <v>128</v>
       </c>
       <c r="AB1" s="35" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="AC1" s="35" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="AD1" s="35" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="AE1" s="35" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="AF1" s="35" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="AG1" s="35" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="AH1" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="AI1" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="AJ1" s="35" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:34">
       <c r="A2" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="G2" s="34" t="s">
         <v>283</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>210</v>
-      </c>
       <c r="H2" s="34" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="I2" s="36" t="s">
         <v>250</v>
@@ -4164,49 +4243,43 @@
       <c r="Y2" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="Z2" s="34" t="s">
-        <v>232</v>
+      <c r="Z2" s="40" t="s">
+        <v>236</v>
       </c>
       <c r="AA2" s="34" t="s">
-        <v>235</v>
+        <v>279</v>
       </c>
       <c r="AB2" s="34" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AC2" s="34" t="s">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="AD2" s="34" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AE2" s="34" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AF2" s="34" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AG2" s="34" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AH2" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="AI2" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="AJ2" s="34" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:34">
       <c r="A3" s="34" t="s">
         <v>206</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>0</v>
+        <v>206</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="D3" s="34" t="s">
         <v>246</v>
@@ -4215,12 +4288,12 @@
         <v>246</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="G3" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="H3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34" t="s">
+        <v>0</v>
+      </c>
       <c r="I3" s="34" t="s">
         <v>0</v>
       </c>
@@ -4234,7 +4307,7 @@
         <v>206</v>
       </c>
       <c r="M3" s="34" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="N3" s="34" t="s">
         <v>206</v>
@@ -4255,7 +4328,7 @@
         <v>206</v>
       </c>
       <c r="T3" s="34" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="U3" s="34" t="s">
         <v>206</v>
@@ -4272,8 +4345,8 @@
       <c r="Y3" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="Z3" s="34" t="s">
-        <v>206</v>
+      <c r="Z3" s="40" t="s">
+        <v>0</v>
       </c>
       <c r="AA3" s="34" t="s">
         <v>206</v>
@@ -4291,83 +4364,81 @@
         <v>206</v>
       </c>
       <c r="AF3" s="34" t="s">
-        <v>206</v>
+        <v>277</v>
       </c>
       <c r="AG3" s="34" t="s">
         <v>206</v>
       </c>
       <c r="AH3" s="34" t="s">
-        <v>279</v>
-      </c>
-      <c r="AI3" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="AJ3" s="34" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36">
+    </row>
+    <row r="4" spans="1:34">
       <c r="I4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="J4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="N4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="P4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36">
+        <v>282</v>
+      </c>
+      <c r="Z4" s="41"/>
+    </row>
+    <row r="5" spans="1:34">
+      <c r="Z5" s="41"/>
+    </row>
+    <row r="6" spans="1:34">
       <c r="A6" s="34">
         <v>1</v>
       </c>
       <c r="B6" s="34">
         <v>1</v>
       </c>
-      <c r="C6" s="34">
-        <v>1</v>
+      <c r="C6" s="34" t="s">
+        <v>291</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>270</v>
-      </c>
-      <c r="F6" s="34" t="s">
         <v>271</v>
       </c>
-      <c r="G6" s="34">
-        <v>1</v>
-      </c>
-      <c r="H6" s="34" t="s">
+      <c r="F6" s="34">
+        <v>1</v>
+      </c>
+      <c r="G6" s="34" t="s">
         <v>275</v>
       </c>
+      <c r="H6" s="34">
+        <v>1</v>
+      </c>
       <c r="I6" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="34">
         <v>0</v>
       </c>
       <c r="K6" s="34">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="L6" s="34">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="M6" s="34">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="N6" s="34">
         <v>0</v>
@@ -4387,8 +4458,8 @@
       <c r="S6" s="34">
         <v>0</v>
       </c>
-      <c r="T6" s="34">
-        <v>0</v>
+      <c r="T6" s="34" t="s">
+        <v>299</v>
       </c>
       <c r="U6" s="34">
         <v>1</v>
@@ -4397,73 +4468,67 @@
         <v>0</v>
       </c>
       <c r="W6" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="34">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="34">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="40">
+        <v>0</v>
       </c>
       <c r="AA6" s="34">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="34">
         <v>10</v>
       </c>
-      <c r="AB6" s="34">
-        <v>0</v>
-      </c>
       <c r="AC6" s="34">
         <v>0</v>
       </c>
       <c r="AD6" s="34">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="34">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="AG6" s="34">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="34">
         <v>10</v>
       </c>
-      <c r="AE6" s="34">
-        <v>10</v>
-      </c>
-      <c r="AF6" s="34">
-        <v>10</v>
-      </c>
-      <c r="AG6" s="34">
-        <v>10</v>
-      </c>
-      <c r="AH6" s="34">
-        <v>1.5</v>
-      </c>
-      <c r="AI6" s="34">
-        <v>10</v>
-      </c>
-      <c r="AJ6" s="34">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36">
+    </row>
+    <row r="7" spans="1:34">
       <c r="A7" s="34">
         <v>2</v>
       </c>
       <c r="B7" s="34">
         <v>2</v>
       </c>
-      <c r="C7" s="34">
-        <v>1</v>
+      <c r="C7" s="34" t="s">
+        <v>290</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>270</v>
-      </c>
-      <c r="F7" s="34" t="s">
         <v>271</v>
       </c>
-      <c r="G7" s="34">
-        <v>1</v>
-      </c>
-      <c r="H7" s="34" t="s">
+      <c r="F7" s="34">
+        <v>1</v>
+      </c>
+      <c r="G7" s="34" t="s">
         <v>275</v>
       </c>
+      <c r="H7" s="34">
+        <v>1</v>
+      </c>
       <c r="I7" s="34">
         <v>1</v>
       </c>
@@ -4471,13 +4536,13 @@
         <v>0</v>
       </c>
       <c r="K7" s="34">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="L7" s="34">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="M7" s="34">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="N7" s="34">
         <v>0</v>
@@ -4497,8 +4562,8 @@
       <c r="S7" s="34">
         <v>0</v>
       </c>
-      <c r="T7" s="34">
-        <v>0</v>
+      <c r="T7" s="34" t="s">
+        <v>300</v>
       </c>
       <c r="U7" s="34">
         <v>1</v>
@@ -4507,73 +4572,67 @@
         <v>0</v>
       </c>
       <c r="W7" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7" s="34">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="34">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="40">
+        <v>0</v>
       </c>
       <c r="AA7" s="34">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="34">
         <v>10</v>
       </c>
-      <c r="AB7" s="34">
-        <v>0</v>
-      </c>
       <c r="AC7" s="34">
         <v>0</v>
       </c>
       <c r="AD7" s="34">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="34">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="34">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="34">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="34">
         <v>10</v>
       </c>
-      <c r="AE7" s="34">
-        <v>10</v>
-      </c>
-      <c r="AF7" s="34">
-        <v>10</v>
-      </c>
-      <c r="AG7" s="34">
-        <v>10</v>
-      </c>
-      <c r="AH7" s="34">
-        <v>1.5</v>
-      </c>
-      <c r="AI7" s="34">
-        <v>10</v>
-      </c>
-      <c r="AJ7" s="34">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36">
+    </row>
+    <row r="8" spans="1:34">
       <c r="A8" s="34">
         <v>3</v>
       </c>
       <c r="B8" s="34">
         <v>3</v>
       </c>
-      <c r="C8" s="34">
-        <v>1</v>
+      <c r="C8" s="34" t="s">
+        <v>290</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>270</v>
-      </c>
-      <c r="F8" s="34" t="s">
         <v>271</v>
       </c>
-      <c r="G8" s="34">
-        <v>1</v>
-      </c>
-      <c r="H8" s="34" t="s">
+      <c r="F8" s="34">
+        <v>1</v>
+      </c>
+      <c r="G8" s="34" t="s">
         <v>275</v>
       </c>
+      <c r="H8" s="34">
+        <v>1</v>
+      </c>
       <c r="I8" s="34">
         <v>1</v>
       </c>
@@ -4581,13 +4640,13 @@
         <v>0</v>
       </c>
       <c r="K8" s="34">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="L8" s="34">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="M8" s="34">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="N8" s="34">
         <v>0</v>
@@ -4607,8 +4666,8 @@
       <c r="S8" s="34">
         <v>0</v>
       </c>
-      <c r="T8" s="34">
-        <v>0</v>
+      <c r="T8" s="34" t="s">
+        <v>299</v>
       </c>
       <c r="U8" s="34">
         <v>1</v>
@@ -4617,7 +4676,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" s="34">
         <v>0</v>
@@ -4625,106 +4684,417 @@
       <c r="Y8" s="34">
         <v>1</v>
       </c>
-      <c r="Z8" s="34">
-        <v>15</v>
+      <c r="Z8" s="40">
+        <v>0</v>
       </c>
       <c r="AA8" s="34">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="34">
         <v>10</v>
       </c>
-      <c r="AB8" s="34">
-        <v>0</v>
-      </c>
       <c r="AC8" s="34">
         <v>0</v>
       </c>
       <c r="AD8" s="34">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="34">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="34">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="34">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="34">
         <v>10</v>
       </c>
-      <c r="AE8" s="34">
+    </row>
+    <row r="9" spans="1:34">
+      <c r="A9" s="34">
+        <v>4</v>
+      </c>
+      <c r="B9" s="36">
+        <v>4</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="F9" s="34">
+        <v>1</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="H9" s="36">
+        <v>1</v>
+      </c>
+      <c r="I9" s="36">
+        <v>1</v>
+      </c>
+      <c r="J9" s="36">
+        <v>0</v>
+      </c>
+      <c r="K9" s="34">
+        <v>2</v>
+      </c>
+      <c r="L9" s="36">
+        <v>1</v>
+      </c>
+      <c r="M9" s="36">
+        <v>1</v>
+      </c>
+      <c r="N9" s="36">
+        <v>0</v>
+      </c>
+      <c r="O9" s="34">
+        <v>0</v>
+      </c>
+      <c r="P9" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="34">
+        <v>0</v>
+      </c>
+      <c r="R9" s="34">
+        <v>0</v>
+      </c>
+      <c r="S9" s="34">
+        <v>0</v>
+      </c>
+      <c r="T9" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="U9" s="34">
+        <v>1</v>
+      </c>
+      <c r="V9" s="34">
+        <v>0</v>
+      </c>
+      <c r="W9" s="34">
+        <v>0</v>
+      </c>
+      <c r="X9" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="34">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="40">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="34">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="34">
         <v>10</v>
       </c>
-      <c r="AF8" s="34">
+      <c r="AC9" s="34">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="34">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="34">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="34">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="34">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="34">
         <v>10</v>
       </c>
-      <c r="AG8" s="34">
+    </row>
+    <row r="10" spans="1:34">
+      <c r="A10" s="34">
+        <v>5</v>
+      </c>
+      <c r="B10" s="36">
+        <v>5</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="F10" s="34">
+        <v>1</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="H10" s="36">
+        <v>1</v>
+      </c>
+      <c r="I10" s="36">
+        <v>1</v>
+      </c>
+      <c r="J10" s="36">
+        <v>0</v>
+      </c>
+      <c r="K10" s="34">
+        <v>1</v>
+      </c>
+      <c r="L10" s="36">
+        <v>1</v>
+      </c>
+      <c r="M10" s="36">
+        <v>1</v>
+      </c>
+      <c r="N10" s="36">
+        <v>0</v>
+      </c>
+      <c r="O10" s="34">
+        <v>0</v>
+      </c>
+      <c r="P10" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="34">
+        <v>0</v>
+      </c>
+      <c r="R10" s="34">
+        <v>0</v>
+      </c>
+      <c r="S10" s="34">
+        <v>0</v>
+      </c>
+      <c r="T10" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="U10" s="34">
+        <v>1</v>
+      </c>
+      <c r="V10" s="34">
+        <v>0</v>
+      </c>
+      <c r="W10" s="34">
+        <v>0</v>
+      </c>
+      <c r="X10" s="34">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="40">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="34">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="34">
         <v>10</v>
       </c>
-      <c r="AH8" s="34">
-        <v>1.5</v>
-      </c>
-      <c r="AI8" s="34">
+      <c r="AC10" s="34">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="34">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="34">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="34">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="34">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="34">
         <v>10</v>
       </c>
-      <c r="AJ8" s="34">
+    </row>
+    <row r="11" spans="1:34">
+      <c r="A11" s="34">
+        <v>6</v>
+      </c>
+      <c r="B11" s="36">
+        <v>6</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>271</v>
+      </c>
+      <c r="F11" s="34">
+        <v>1</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>275</v>
+      </c>
+      <c r="H11" s="36">
+        <v>1</v>
+      </c>
+      <c r="I11" s="36">
+        <v>1</v>
+      </c>
+      <c r="J11" s="36">
+        <v>1</v>
+      </c>
+      <c r="K11" s="34">
+        <v>2</v>
+      </c>
+      <c r="L11" s="36">
+        <v>1</v>
+      </c>
+      <c r="M11" s="36">
+        <v>1</v>
+      </c>
+      <c r="N11" s="36">
+        <v>0</v>
+      </c>
+      <c r="O11" s="34">
+        <v>0</v>
+      </c>
+      <c r="P11" s="34">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="34">
+        <v>0</v>
+      </c>
+      <c r="R11" s="34">
+        <v>0</v>
+      </c>
+      <c r="S11" s="34">
+        <v>1</v>
+      </c>
+      <c r="T11" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="U11" s="34">
+        <v>5</v>
+      </c>
+      <c r="V11" s="34">
+        <v>1</v>
+      </c>
+      <c r="W11" s="34">
+        <v>5</v>
+      </c>
+      <c r="X11" s="34">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="34">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="40">
+        <v>2</v>
+      </c>
+      <c r="AA11" s="34">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="34">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:36" ht="198.75" customHeight="1">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="I12" s="37" t="s">
+      <c r="AC11" s="34">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="34">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="34">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="34">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="34">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34">
+      <c r="A12" s="42"/>
+      <c r="Z12" s="41"/>
+    </row>
+    <row r="13" spans="1:34" ht="198.75" customHeight="1">
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="J13" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="J12" s="38" t="s">
-        <v>272</v>
-      </c>
-      <c r="K12" s="37"/>
-      <c r="L12" s="38" t="s">
+      <c r="K13" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="L13" s="37"/>
+      <c r="M13" s="38" t="s">
         <v>267</v>
       </c>
-      <c r="M12" s="37" t="s">
+      <c r="N13" s="37" t="s">
         <v>254</v>
       </c>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="37" t="s">
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="37" t="s">
         <v>265</v>
       </c>
-      <c r="S12" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="T12" s="37" t="s">
+      <c r="T13" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="U13" s="37" t="s">
         <v>252</v>
       </c>
-      <c r="U12" s="37" t="s">
-        <v>264</v>
-      </c>
-      <c r="V12" s="37"/>
-      <c r="W12" s="37" t="s">
+      <c r="V13" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37" t="s">
         <v>253</v>
       </c>
-      <c r="X12" s="38"/>
-      <c r="Y12" s="38"/>
-      <c r="Z12" s="38"/>
-      <c r="AA12" s="37" t="s">
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="37" t="s">
         <v>256</v>
       </c>
-      <c r="AB12" s="37" t="s">
+      <c r="AA13" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="AC12" s="37"/>
-      <c r="AD12" s="37" t="s">
-        <v>278</v>
-      </c>
-      <c r="AE12" s="38" t="s">
+      <c r="AB13" s="34"/>
+      <c r="AC13" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="AD13" s="38" t="s">
         <v>259</v>
       </c>
-      <c r="AF12" s="37" t="s">
+      <c r="AE13" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="AG12" s="38"/>
-      <c r="AH12" s="38"/>
-      <c r="AI12" s="38"/>
+      <c r="AF13" s="38"/>
+      <c r="AG13" s="38"/>
+      <c r="AH13" s="38"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4735,7 +5105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P67"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
@@ -5621,7 +5991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BC6"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/LuaFramework_UGUI-master/Assets/Excel/Skill.xlsx
+++ b/LuaFramework_UGUI-master/Assets/Excel/Skill.xlsx
@@ -2095,7 +2095,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="301">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3260,14 +3260,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UpdateCost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3324,39 +3316,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>弓箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒冰箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级数值高优先</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀砍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold,1066</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>回血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弓箭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寒冰箭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优先级数值高优先</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刀砍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4022,7 +4018,7 @@
   <dimension ref="A1:AH13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AO11" sqref="AO11"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4086,7 +4082,7 @@
         <v>274</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>247</v>
@@ -4137,7 +4133,7 @@
         <v>118</v>
       </c>
       <c r="Y1" s="35" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="Z1" s="35" t="s">
         <v>124</v>
@@ -4187,10 +4183,10 @@
         <v>210</v>
       </c>
       <c r="G2" s="34" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H2" s="34" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I2" s="36" t="s">
         <v>250</v>
@@ -4290,7 +4286,9 @@
       <c r="F3" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="G3" s="34"/>
+      <c r="G3" s="34" t="s">
+        <v>246</v>
+      </c>
       <c r="H3" s="34" t="s">
         <v>0</v>
       </c>
@@ -4373,30 +4371,6 @@
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
-      <c r="I4" t="s">
-        <v>281</v>
-      </c>
-      <c r="J4" t="s">
-        <v>282</v>
-      </c>
-      <c r="K4" t="s">
-        <v>282</v>
-      </c>
-      <c r="M4" t="s">
-        <v>281</v>
-      </c>
-      <c r="N4" t="s">
-        <v>282</v>
-      </c>
-      <c r="O4" t="s">
-        <v>282</v>
-      </c>
-      <c r="P4" t="s">
-        <v>282</v>
-      </c>
-      <c r="Z4" s="41"/>
-    </row>
     <row r="5" spans="1:34">
       <c r="Z5" s="41"/>
     </row>
@@ -4408,10 +4382,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E6" s="34" t="s">
         <v>271</v>
@@ -4420,7 +4394,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="H6" s="34">
         <v>1</v>
@@ -4459,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="34" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="U6" s="34">
         <v>1</v>
@@ -4512,10 +4486,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="D7" s="34" t="s">
         <v>290</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>292</v>
       </c>
       <c r="E7" s="34" t="s">
         <v>271</v>
@@ -4524,7 +4498,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="H7" s="34">
         <v>1</v>
@@ -4563,7 +4537,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="34" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="U7" s="34">
         <v>1</v>
@@ -4616,10 +4590,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E8" s="34" t="s">
         <v>271</v>
@@ -4628,7 +4602,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="H8" s="34">
         <v>1</v>
@@ -4667,7 +4641,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="34" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="U8" s="34">
         <v>1</v>
@@ -4720,10 +4694,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E9" s="34" t="s">
         <v>271</v>
@@ -4732,7 +4706,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="H9" s="36">
         <v>1</v>
@@ -4771,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="34" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="U9" s="34">
         <v>1</v>
@@ -4824,10 +4798,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E10" s="34" t="s">
         <v>271</v>
@@ -4836,7 +4810,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="H10" s="36">
         <v>1</v>
@@ -4875,7 +4849,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="34" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="U10" s="34">
         <v>1</v>
@@ -4928,10 +4902,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="E11" s="34" t="s">
         <v>271</v>
@@ -4940,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="H11" s="36">
         <v>1</v>
@@ -4979,7 +4953,7 @@
         <v>1</v>
       </c>
       <c r="T11" s="34" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="U11" s="34">
         <v>5</v>
@@ -5037,7 +5011,7 @@
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
       <c r="H13" s="37" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I13" s="37" t="s">
         <v>251</v>
@@ -5046,7 +5020,7 @@
         <v>263</v>
       </c>
       <c r="K13" s="38" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="L13" s="37"/>
       <c r="M13" s="38" t="s">
@@ -5063,13 +5037,13 @@
         <v>265</v>
       </c>
       <c r="T13" s="37" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="U13" s="37" t="s">
         <v>252</v>
       </c>
       <c r="V13" s="37" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="W13" s="37"/>
       <c r="X13" s="37" t="s">

--- a/LuaFramework_UGUI-master/Assets/Excel/Skill.xlsx
+++ b/LuaFramework_UGUI-master/Assets/Excel/Skill.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -2095,7 +2095,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="298">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3265,101 +3265,86 @@
   </si>
   <si>
     <t xml:space="preserve">类型：
-0.单位目标
-1.地点目标   
+0.扇形
+1.圆形
+2.矩形
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能子弹ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否普通攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型：
+0.是
+1.否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normalAttck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴风雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒冰箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级数值高优先</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀砍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold,1066</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">类型：
 单位目标
 0.随机目标
 1.指定位置
 2.数值最高
 3.数值最低
-地点目标
 4.自身位置
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">类型：
-0.扇形
-1.圆形
-2.矩形
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能子弹ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否普通攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型：
-0.是
-1.否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>normalAttck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>远程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>近战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴风雪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>弓箭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寒冰箭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优先级数值高优先</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刀砍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gold,1066</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回血</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="17">
     <font>
       <sz val="11"/>
@@ -3731,7 +3716,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3805,6 +3790,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3839,6 +3825,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4014,11 +4001,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4082,7 +4069,7 @@
         <v>274</v>
       </c>
       <c r="H1" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I1" s="35" t="s">
         <v>247</v>
@@ -4133,7 +4120,7 @@
         <v>118</v>
       </c>
       <c r="Y1" s="35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z1" s="35" t="s">
         <v>124</v>
@@ -4186,7 +4173,7 @@
         <v>281</v>
       </c>
       <c r="H2" s="34" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I2" s="36" t="s">
         <v>250</v>
@@ -4382,10 +4369,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E6" s="34" t="s">
         <v>271</v>
@@ -4394,7 +4381,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H6" s="34">
         <v>1</v>
@@ -4432,8 +4419,8 @@
       <c r="S6" s="34">
         <v>0</v>
       </c>
-      <c r="T6" s="34" t="s">
-        <v>296</v>
+      <c r="T6" s="34">
+        <v>0</v>
       </c>
       <c r="U6" s="34">
         <v>1</v>
@@ -4486,10 +4473,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E7" s="34" t="s">
         <v>271</v>
@@ -4498,7 +4485,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H7" s="34">
         <v>1</v>
@@ -4536,8 +4523,8 @@
       <c r="S7" s="34">
         <v>0</v>
       </c>
-      <c r="T7" s="34" t="s">
-        <v>297</v>
+      <c r="T7" s="34">
+        <v>0</v>
       </c>
       <c r="U7" s="34">
         <v>1</v>
@@ -4590,10 +4577,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E8" s="34" t="s">
         <v>271</v>
@@ -4602,7 +4589,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H8" s="34">
         <v>1</v>
@@ -4640,8 +4627,8 @@
       <c r="S8" s="34">
         <v>0</v>
       </c>
-      <c r="T8" s="34" t="s">
-        <v>296</v>
+      <c r="T8" s="34">
+        <v>0</v>
       </c>
       <c r="U8" s="34">
         <v>1</v>
@@ -4694,10 +4681,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E9" s="34" t="s">
         <v>271</v>
@@ -4706,7 +4693,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H9" s="36">
         <v>1</v>
@@ -4744,8 +4731,8 @@
       <c r="S9" s="34">
         <v>0</v>
       </c>
-      <c r="T9" s="34" t="s">
-        <v>296</v>
+      <c r="T9" s="34">
+        <v>0</v>
       </c>
       <c r="U9" s="34">
         <v>1</v>
@@ -4798,10 +4785,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E10" s="34" t="s">
         <v>271</v>
@@ -4810,7 +4797,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H10" s="36">
         <v>1</v>
@@ -4848,8 +4835,8 @@
       <c r="S10" s="34">
         <v>0</v>
       </c>
-      <c r="T10" s="34" t="s">
-        <v>296</v>
+      <c r="T10" s="34">
+        <v>0</v>
       </c>
       <c r="U10" s="34">
         <v>1</v>
@@ -4902,10 +4889,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E11" s="34" t="s">
         <v>271</v>
@@ -4914,7 +4901,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H11" s="36">
         <v>1</v>
@@ -4952,8 +4939,8 @@
       <c r="S11" s="34">
         <v>1</v>
       </c>
-      <c r="T11" s="34" t="s">
-        <v>298</v>
+      <c r="T11" s="34">
+        <v>4</v>
       </c>
       <c r="U11" s="34">
         <v>5</v>
@@ -5011,7 +4998,7 @@
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
       <c r="H13" s="37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I13" s="37" t="s">
         <v>251</v>
@@ -5020,7 +5007,7 @@
         <v>263</v>
       </c>
       <c r="K13" s="38" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L13" s="37"/>
       <c r="M13" s="38" t="s">
@@ -5037,13 +5024,13 @@
         <v>265</v>
       </c>
       <c r="T13" s="37" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="U13" s="37" t="s">
         <v>252</v>
       </c>
       <c r="V13" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="W13" s="37"/>
       <c r="X13" s="37" t="s">
@@ -5079,7 +5066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P67"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
@@ -5965,7 +5952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC6"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/LuaFramework_UGUI-master/Assets/Excel/Skill.xlsx
+++ b/LuaFramework_UGUI-master/Assets/Excel/Skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -2095,7 +2095,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="299">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3338,6 +3338,10 @@
 3.数值最低
 4.自身位置
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bulletId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4005,7 +4009,7 @@
   <dimension ref="A1:AH13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+      <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4224,7 +4228,7 @@
         <v>233</v>
       </c>
       <c r="Y2" s="34" t="s">
-        <v>231</v>
+        <v>298</v>
       </c>
       <c r="Z2" s="40" t="s">
         <v>236</v>
@@ -4432,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="X6" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="34">
         <v>0</v>
@@ -4536,7 +4540,7 @@
         <v>0</v>
       </c>
       <c r="X7" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="34">
         <v>0</v>
@@ -4640,7 +4644,7 @@
         <v>0</v>
       </c>
       <c r="X8" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="34">
         <v>1</v>
@@ -4744,7 +4748,7 @@
         <v>0</v>
       </c>
       <c r="X9" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9" s="34">
         <v>2</v>

--- a/LuaFramework_UGUI-master/Assets/Excel/Skill.xlsx
+++ b/LuaFramework_UGUI-master/Assets/Excel/Skill.xlsx
@@ -2095,7 +2095,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="303">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3342,6 +3342,22 @@
   </si>
   <si>
     <t>bulletId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect/ArrowFX_FireRain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect/ChargeFX_Wind01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4008,8 +4024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Y19" sqref="Y19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4045,7 +4061,7 @@
     <col min="30" max="30" width="23.625" customWidth="1"/>
     <col min="31" max="31" width="21.75" customWidth="1"/>
     <col min="32" max="32" width="10.5" customWidth="1"/>
-    <col min="33" max="33" width="15" customWidth="1"/>
+    <col min="33" max="33" width="29.25" customWidth="1"/>
     <col min="34" max="34" width="15.75" customWidth="1"/>
     <col min="35" max="54" width="27.375" customWidth="1"/>
   </cols>
@@ -4293,7 +4309,7 @@
         <v>206</v>
       </c>
       <c r="L3" s="34" t="s">
-        <v>206</v>
+        <v>302</v>
       </c>
       <c r="M3" s="34" t="s">
         <v>278</v>
@@ -4356,7 +4372,7 @@
         <v>277</v>
       </c>
       <c r="AG3" s="34" t="s">
-        <v>206</v>
+        <v>299</v>
       </c>
       <c r="AH3" s="34" t="s">
         <v>206</v>
@@ -4463,7 +4479,7 @@
         <v>0.5</v>
       </c>
       <c r="AG6" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH6" s="34">
         <v>10</v>
@@ -4495,7 +4511,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="34">
         <v>0</v>
@@ -4567,7 +4583,7 @@
         <v>1</v>
       </c>
       <c r="AG7" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH7" s="34">
         <v>10</v>
@@ -4608,7 +4624,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="34">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="M8" s="34">
         <v>1</v>
@@ -4671,7 +4687,7 @@
         <v>1</v>
       </c>
       <c r="AG8" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH8" s="34">
         <v>10</v>
@@ -4712,7 +4728,7 @@
         <v>2</v>
       </c>
       <c r="L9" s="36">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="M9" s="36">
         <v>1</v>
@@ -4775,7 +4791,7 @@
         <v>1</v>
       </c>
       <c r="AG9" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH9" s="34">
         <v>10</v>
@@ -4816,7 +4832,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M10" s="36">
         <v>1</v>
@@ -4852,7 +4868,7 @@
         <v>0</v>
       </c>
       <c r="X10" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="34">
         <v>0</v>
@@ -4878,8 +4894,8 @@
       <c r="AF10" s="34">
         <v>1</v>
       </c>
-      <c r="AG10" s="34">
-        <v>1</v>
+      <c r="AG10" s="34" t="s">
+        <v>300</v>
       </c>
       <c r="AH10" s="34">
         <v>10</v>
@@ -4920,7 +4936,7 @@
         <v>2</v>
       </c>
       <c r="L11" s="36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M11" s="36">
         <v>1</v>
@@ -4956,7 +4972,7 @@
         <v>5</v>
       </c>
       <c r="X11" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="34">
         <v>0</v>
@@ -4982,8 +4998,8 @@
       <c r="AF11" s="34">
         <v>1</v>
       </c>
-      <c r="AG11" s="34">
-        <v>1</v>
+      <c r="AG11" s="34" t="s">
+        <v>301</v>
       </c>
       <c r="AH11" s="34">
         <v>10</v>

--- a/LuaFramework_UGUI-master/Assets/Excel/Skill.xlsx
+++ b/LuaFramework_UGUI-master/Assets/Excel/Skill.xlsx
@@ -4024,8 +4024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4041,13 +4041,13 @@
     <col min="10" max="10" width="16.5" customWidth="1"/>
     <col min="11" max="11" width="16.375" customWidth="1"/>
     <col min="12" max="12" width="17.5" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="13" max="13" width="17.375" customWidth="1"/>
     <col min="14" max="14" width="12.375" customWidth="1"/>
     <col min="15" max="15" width="14.5" customWidth="1"/>
     <col min="16" max="16" width="15.125" customWidth="1"/>
     <col min="17" max="17" width="20.5" customWidth="1"/>
     <col min="18" max="18" width="11" customWidth="1"/>
-    <col min="19" max="19" width="15.625" customWidth="1"/>
+    <col min="19" max="19" width="12.5" customWidth="1"/>
     <col min="20" max="20" width="17" customWidth="1"/>
     <col min="21" max="21" width="26" customWidth="1"/>
     <col min="22" max="22" width="16.875" customWidth="1"/>
@@ -4061,7 +4061,7 @@
     <col min="30" max="30" width="23.625" customWidth="1"/>
     <col min="31" max="31" width="21.75" customWidth="1"/>
     <col min="32" max="32" width="10.5" customWidth="1"/>
-    <col min="33" max="33" width="29.25" customWidth="1"/>
+    <col min="33" max="33" width="23.875" customWidth="1"/>
     <col min="34" max="34" width="15.75" customWidth="1"/>
     <col min="35" max="54" width="27.375" customWidth="1"/>
   </cols>
@@ -4654,7 +4654,7 @@
         <v>1</v>
       </c>
       <c r="V8" s="34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W8" s="34">
         <v>0</v>
@@ -4758,7 +4758,7 @@
         <v>1</v>
       </c>
       <c r="V9" s="34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W9" s="34">
         <v>0</v>
@@ -5009,7 +5009,7 @@
       <c r="A12" s="42"/>
       <c r="Z12" s="41"/>
     </row>
-    <row r="13" spans="1:34" ht="198.75" customHeight="1">
+    <row r="13" spans="1:34" ht="250.5" customHeight="1">
       <c r="A13" s="34"/>
       <c r="B13" s="34"/>
       <c r="C13" s="34"/>
